--- a/experiment result cnn/512_0.8_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/512_0.8_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007272032971686937</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03191693275899793</v>
+        <v>0.002268373668597908</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01391583196686418</v>
+        <v>0.0002200819999762617</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008220073148187897</v>
+        <v>0.008626408863979983</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0007211633230779168</v>
+        <v>0.0458150056084911</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02134250659240287</v>
+        <v>0.0001801299998358576</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007369239633409935</v>
+        <v>0.0129502134776693</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.004392030986123441</v>
+        <v>0.05141577412477989</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002859640748866331</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.005937003713328642</v>
+        <v>0.02166158526039563</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01848164829223076</v>
+        <v>0.009966569483839383</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06142386460234339</v>
+        <v>0.02727744981319332</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01100270901285838</v>
+        <v>0.001504557833487597</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003331867288272942</v>
+        <v>0.004486410305031996</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002836315200912222</v>
+        <v>0.0498102561299228</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0004205336328080143</v>
+        <v>0.04968256994565455</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.001994888113313994</v>
+        <v>0.02999745693569788</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0007412372179468225</v>
+        <v>0.001589057183052812</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001145638754143576</v>
+        <v>0.09555803064139837</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0008031959901562471</v>
+        <v>0.07259849829401688</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03373794612180227</v>
+        <v>0.0003806499957857763</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0001200840059496578</v>
+        <v>0.001564671875481857</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04139464549002269</v>
+        <v>0.01238569621522974</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03632444256192691</v>
+        <v>0.03612052226256521</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0187666536352587</v>
+        <v>0.03242155687866217</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00267727905935154</v>
+        <v>0.009317698820907962</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02189795292184651</v>
+        <v>0.001646571708242022</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03688350393611878</v>
+        <v>0.03046435769640531</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01674503451849301</v>
+        <v>0.006044366237834482</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04317222319473309</v>
+        <v>0.0103650087596883</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01349512339825066</v>
+        <v>0.0004406559957856562</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002356686594901614</v>
+        <v>0.01671042510681032</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.008026573369039239</v>
+        <v>0.02740528666374985</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0003202679264671619</v>
+        <v>0.006827271136443601</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01060328293495784</v>
+        <v>0.01736970987968263</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.008950877042377974</v>
+        <v>0.001564459902083139</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09007731888812728</v>
+        <v>0.0001600999999037854</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01264171384961789</v>
+        <v>0.0005813619816249816</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003152263521132535</v>
+        <v>0.02706783993909577</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0006009358354503193</v>
+        <v>0.3807972863874675</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01220458237338048</v>
+        <v>0.0287943499859026</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.004784293297826379</v>
+        <v>0.0006015759752750514</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.003031354582555938</v>
+        <v>0.06958658409183263</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.005138931982542618</v>
+        <v>0.01272476967551199</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.001566923340701653</v>
+        <v>0.01431512435220428</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.002032154450077237</v>
+        <v>0.009169094339517431</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.009089366120344011</v>
+        <v>0.00140637160215881</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08193009907202581</v>
+        <v>0.005194619075615975</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002121177533842958</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03492681103237665</v>
+        <v>0.03684164881296502</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1065171283888397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01398248260330165</v>
+        <v>0.01310419360671492</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0101843614719631</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006415791736410109</v>
+        <v>0.0001000339999897118</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001744182271468953</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01315413211387625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0397015095904736</v>
+        <v>0.0006810319931632999</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01879717403639955</v>
+        <v>0.00377665904737091</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04204893239152081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004377575236742828</v>
+        <v>0.06713307701958184</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01525896530236048</v>
+        <v>0.02628041620026408</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02629958761195024</v>
+        <v>0.002213358333088323</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09879368359398141</v>
+        <v>0.009763361365091374</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0207974103041369</v>
+        <v>0.0156334502000939</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03218727060153091</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01430325584580776</v>
+        <v>0.0006815879752743311</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06568336498278202</v>
+        <v>0.003209930017490373</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05507971967253841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0002602498997440241</v>
+        <v>0.0009020819726458096</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.006578425701023452</v>
+        <v>0.003722795644440591</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01814328833077179</v>
+        <v>0.009254940751351848</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0008030405035851284</v>
+        <v>0.02698691571921672</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.001406267404818919</v>
+        <v>0.0008830519067375515</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.0005203719995377117</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04354693883911125</v>
+        <v>0.02943459327402427</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0002400879773231417</v>
+        <v>0.1156445092337159</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003532727508272187</v>
+        <v>0.01660219246252017</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.005871727278406557</v>
+        <v>0.01150718492738051</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0006016814152727737</v>
+        <v>8.001199999927973e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.009830626144371347</v>
+        <v>0.001001831984292724</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06497644442783443</v>
+        <v>0.0004004639984071491</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.007675495087504642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03133647306591158</v>
+        <v>0.0004605619973566679</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01167461560095444</v>
+        <v>0.008298587802569228</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0181659667710766</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.005918640079501099</v>
+        <v>0.000701049993148523</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0004605255919305777</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.009919222802344363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0005607594073442313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01096751401919366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.05676284949497826</v>
+        <v>0.0001200199999986395</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001600799702659819</v>
+        <v>0.0002402039995991192</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01643051179267813</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0323763345810523</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.002192126733169907</v>
+        <v>0.000120023999996638</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1028773910064296</v>
+        <v>0.01563722153238251</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0004804958095972792</v>
+        <v>0.01345447267694077</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.00674237475513269</v>
+        <v>0.0003002979991678867</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08108539275985069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.00237843666779568</v>
+        <v>0.3632622849168927</v>
       </c>
     </row>
   </sheetData>
